--- a/Musc_Dev.xlsx
+++ b/Musc_Dev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8aa6e653ac5abb46/UCL_one_drive_clone/KV2.1_project_data/KV2_paper_Allfiles_for_jupyterNB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_86AE8D6D891A52C0994F0E58F947B36113057F51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1772E781-9267-4322-81CC-D7A7C0A1B1A2}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_86AE8D6D891A52C0994F0E58F947B36113057F51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E3F36F-6DB8-4DAB-B0EE-6C9E2D695CEF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,24 +329,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,11 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,726 +635,728 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E43"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" style="2"/>
     <col min="15" max="15" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2">
         <v>-67</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>-51.6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>-143</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2">
         <v>-63</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>-53</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>-255</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2">
         <v>-66</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>-63</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>-163</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>-279</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="2">
         <v>-65</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>-56</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="2">
         <v>-66</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>-59</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>-284</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="2">
         <v>-62</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>-56</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>-40</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>-370</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2">
         <v>-64</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>-56</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>-150</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2">
         <v>-68</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>-55</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>-186</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="2">
         <v>-65</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>-51</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>-238</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H24" s="2">
@@ -1378,22 +1367,22 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1407,25 +1396,25 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="2">
@@ -1436,22 +1425,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1465,25 +1454,25 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H28" s="2">
@@ -1494,22 +1483,22 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1523,25 +1512,25 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="2">
@@ -1552,22 +1541,22 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1581,25 +1570,25 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H32" s="2">
@@ -1610,22 +1599,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1639,25 +1628,25 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H34" s="2">
@@ -1668,22 +1657,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1697,25 +1686,25 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="2">
@@ -1726,22 +1715,22 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>13</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1755,25 +1744,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H38" s="2">
@@ -1784,22 +1773,22 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -1813,25 +1802,25 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H40" s="2">
@@ -1842,22 +1831,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -1871,25 +1860,25 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="2">
@@ -1900,22 +1889,22 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="2" t="s">
